--- a/code/notebooks/phase1_objects_curated/itemsVsacc.xlsx
+++ b/code/notebooks/phase1_objects_curated/itemsVsacc.xlsx
@@ -458,7 +458,7 @@
         <v>0.5725568015656384</v>
       </c>
       <c r="C2" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>0.5671583881210089</v>
       </c>
       <c r="C3" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0.5733202828553585</v>
       </c>
       <c r="C4" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>0.5751495708917781</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00237979011324116</v>
+        <v>0.002399004411035417</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>0.575888943013941</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001109922652666884</v>
+        <v>0.001129136950461141</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>0.5764026906966634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001600981026669369</v>
+        <v>0.001620195324463625</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>0.5759854837189562</v>
       </c>
       <c r="C8" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>0.5749098978107722</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001333861572945436</v>
+        <v>0.0001526004550888003</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>0.5741884510966418</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002135437441770057</v>
+        <v>0.002154651739564313</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>0.5737133516920583</v>
       </c>
       <c r="C11" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>0.5735433984048887</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000886289044480969</v>
+        <v>0.0009055033422752257</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>0.5752985493410152</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002447251392468735</v>
+        <v>0.002466465690262991</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>0.5760414333704824</v>
       </c>
       <c r="C14" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>0.5786758599551591</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003956880397603208</v>
+        <v>0.003976094695397465</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>0.5788496472290224</v>
       </c>
       <c r="C16" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>0.5790182477745535</v>
       </c>
       <c r="C17" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>0.5778266643165416</v>
       </c>
       <c r="C18" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>0.5793419601439361</v>
       </c>
       <c r="C19" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>0.5835253327810535</v>
       </c>
       <c r="C20" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>0.5869216084463671</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003207049277093873</v>
+        <v>0.003226263574888129</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>0.5889293782710885</v>
       </c>
       <c r="C22" t="n">
-        <v>2.676470434236151e-05</v>
+        <v>4.597900213661821e-05</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>0.5901640238711222</v>
       </c>
       <c r="C23" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>0.5923236163848483</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0007894266105979711</v>
+        <v>0.0008086409083922279</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>0.5903238899537229</v>
       </c>
       <c r="C25" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>0.593779392462944</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002012359602386683</v>
+        <v>0.00203157390018094</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>0.5960295795622798</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0007809109546640094</v>
+        <v>0.0008001252524582662</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>0.5991735387413265</v>
       </c>
       <c r="C28" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>0.6010129071853439</v>
       </c>
       <c r="C29" t="n">
-        <v>2.11256458316833e-05</v>
+        <v>4.033994362593999e-05</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>0.6004515779127416</v>
       </c>
       <c r="C30" t="n">
-        <v>2.427447316288604e-05</v>
+        <v>4.348877095714273e-05</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>0.6037910431321378</v>
       </c>
       <c r="C31" t="n">
-        <v>0.007652619081965625</v>
+        <v>0.007671833379759881</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>0.6036251764825969</v>
       </c>
       <c r="C32" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>0.6025761268206018</v>
       </c>
       <c r="C33" t="n">
-        <v>0.000437805527821146</v>
+        <v>0.0004570198256154027</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>0.6031201266760797</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002969049872389568</v>
+        <v>0.002988264170183825</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>0.6054396633859309</v>
       </c>
       <c r="C35" t="n">
-        <v>0.004197997232478178</v>
+        <v>0.004217211530272434</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>0.610688951891545</v>
       </c>
       <c r="C36" t="n">
-        <v>0.004565717479993282</v>
+        <v>0.004584931777787539</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>0.6079180358929965</v>
       </c>
       <c r="C37" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>0.6075005939871412</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001431439735138676</v>
+        <v>0.001450654032932932</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>0.6081733151194114</v>
       </c>
       <c r="C39" t="n">
-        <v>0.003503210602413846</v>
+        <v>0.003522424900208103</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>0.6060266848370223</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0002648713530540414</v>
+        <v>0.0002840856508482981</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>0.6065414683301562</v>
       </c>
       <c r="C41" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>0.6052177321573919</v>
       </c>
       <c r="C42" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>0.6095189594394269</v>
       </c>
       <c r="C43" t="n">
-        <v>0.008182867814462168</v>
+        <v>0.008202082112256424</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>0.6126894440883216</v>
       </c>
       <c r="C44" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>0.6144710806260169</v>
       </c>
       <c r="C45" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>0.6170299320302021</v>
       </c>
       <c r="C46" t="n">
-        <v>0.006566283611403753</v>
+        <v>0.006585497909198009</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>0.6286238496120603</v>
       </c>
       <c r="C47" t="n">
-        <v>0.02164996874718403</v>
+        <v>0.02166918304497829</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>0.6311620879940592</v>
       </c>
       <c r="C48" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>0.6349849750120137</v>
       </c>
       <c r="C49" t="n">
-        <v>0.00522629618652481</v>
+        <v>0.005245510484319066</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>0.6359525520316356</v>
       </c>
       <c r="C50" t="n">
-        <v>0.007633638173955045</v>
+        <v>0.007652852471749301</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>0.6382691542346073</v>
       </c>
       <c r="C51" t="n">
-        <v>0.007203894413917561</v>
+        <v>0.007223108711711817</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>0.6443453053956684</v>
       </c>
       <c r="C52" t="n">
-        <v>0.001553004871809115</v>
+        <v>0.001572219169603372</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>0.6457823175302599</v>
       </c>
       <c r="C53" t="n">
-        <v>0.002539384263277846</v>
+        <v>0.002558598561072103</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>0.6555692835261704</v>
       </c>
       <c r="C54" t="n">
-        <v>0.02158201597304495</v>
+        <v>0.02160123027083921</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>0.6598068808443922</v>
       </c>
       <c r="C55" t="n">
-        <v>0.005403088330982156</v>
+        <v>0.005422302628776412</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>0.6680324893150914</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01272391916189574</v>
+        <v>0.01274313345969</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>0.6674823108035618</v>
       </c>
       <c r="C57" t="n">
-        <v>0.004541490410545107</v>
+        <v>0.004560704708339363</v>
       </c>
     </row>
     <row r="58">
@@ -1074,7 +1074,7 @@
         <v>0.6625795415786733</v>
       </c>
       <c r="C58" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1085,7 +1085,7 @@
         <v>0.6601343182499181</v>
       </c>
       <c r="C59" t="n">
-        <v>0.005440503439989615</v>
+        <v>0.005459717737783872</v>
       </c>
     </row>
     <row r="60">
@@ -1096,7 +1096,7 @@
         <v>0.6647395717268332</v>
       </c>
       <c r="C60" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>0.661786463295375</v>
       </c>
       <c r="C61" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>0.6569380498182285</v>
       </c>
       <c r="C62" t="n">
-        <v>0.003283568392945194</v>
+        <v>0.003302782690739451</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>0.6597207416777109</v>
       </c>
       <c r="C63" t="n">
-        <v>0.00819436508730347</v>
+        <v>0.008213579385097727</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>0.6603179646711441</v>
       </c>
       <c r="C64" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>0.6696511823700161</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01158782598500169</v>
+        <v>0.01160704028279594</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>0.671944104312823</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01471821567202256</v>
+        <v>0.01473742996981681</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>0.676137204532379</v>
       </c>
       <c r="C67" t="n">
-        <v>0.009037543169108569</v>
+        <v>0.009056757466902826</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>0.6791700549617883</v>
       </c>
       <c r="C68" t="n">
-        <v>0.006919439735062961</v>
+        <v>0.006938654032857218</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>0.6701945032010785</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0005638065711104352</v>
+        <v>0.000583020868904692</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>0.6725458088521048</v>
       </c>
       <c r="C70" t="n">
-        <v>0.005336012147262642</v>
+        <v>0.005355226445056899</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>0.6697662055396412</v>
       </c>
       <c r="C71" t="n">
-        <v>0.003683134131870493</v>
+        <v>0.00370234842966475</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>0.6657649597028228</v>
       </c>
       <c r="C72" t="n">
-        <v>0.001315627556525768</v>
+        <v>0.001334841854320025</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>0.6580320459197317</v>
       </c>
       <c r="C73" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>0.6709265414391824</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01860066852579338</v>
+        <v>0.01861988282358764</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>0.6736455088136929</v>
       </c>
       <c r="C75" t="n">
-        <v>0.005350471759123328</v>
+        <v>0.005369686056917585</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>0.6763471705005685</v>
       </c>
       <c r="C76" t="n">
-        <v>0.01716112482832842</v>
+        <v>0.01718033912612268</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>0.672871356932938</v>
       </c>
       <c r="C77" t="n">
-        <v>0.009152150740084171</v>
+        <v>0.009171365037878427</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>0.6888867078719892</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0188550458111678</v>
+        <v>0.01887426010896206</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>0.6908711924734772</v>
       </c>
       <c r="C79" t="n">
-        <v>0.007910782357199227</v>
+        <v>0.007929996654993483</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>0.6968190575865238</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01406428932092116</v>
+        <v>0.01408350361871542</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>0.7038202486438201</v>
       </c>
       <c r="C81" t="n">
-        <v>0.007786016713262827</v>
+        <v>0.007805231011057083</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>0.7097445617240246</v>
       </c>
       <c r="C82" t="n">
-        <v>0.02067747407781938</v>
+        <v>0.02069668837561364</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>0.7101456025517793</v>
       </c>
       <c r="C83" t="n">
-        <v>0.01501788802614794</v>
+        <v>0.0150371023239422</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>0.7136089218203316</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0071449913213506</v>
+        <v>0.007164205619144857</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>0.7173446694678697</v>
       </c>
       <c r="C85" t="n">
-        <v>0.01271575396760056</v>
+        <v>0.01273496826539481</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>0.7088096328777657</v>
       </c>
       <c r="C86" t="n">
-        <v>0.00532704950562566</v>
+        <v>0.005346263803419916</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>0.7170538658255861</v>
       </c>
       <c r="C87" t="n">
-        <v>0.01737263431553016</v>
+        <v>0.01739184861332442</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>0.7050793587798363</v>
       </c>
       <c r="C88" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>0.7080310237035727</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01353055839755375</v>
+        <v>0.01354977269534801</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>0.7117127148469075</v>
       </c>
       <c r="C90" t="n">
-        <v>0.01932811895085931</v>
+        <v>0.01934733324865357</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>0.7204225467865011</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01739855056569027</v>
+        <v>0.01741776486348453</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>0.7246230592824886</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01867106775532229</v>
+        <v>0.01869028205311655</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>0.7364040724070113</v>
       </c>
       <c r="C93" t="n">
-        <v>0.01607385063630716</v>
+        <v>0.01609306493410142</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>0.7404174969469043</v>
       </c>
       <c r="C94" t="n">
-        <v>0.01969962667768288</v>
+        <v>0.01971884097547713</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>0.7497297450775849</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01873693223008181</v>
+        <v>0.01875614652787606</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>0.7558368530253251</v>
       </c>
       <c r="C96" t="n">
-        <v>0.008467733900817122</v>
+        <v>0.008486948198611378</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>0.7660239771004391</v>
       </c>
       <c r="C97" t="n">
-        <v>0.02795352603422555</v>
+        <v>0.02797274033201981</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>0.7647397389797459</v>
       </c>
       <c r="C98" t="n">
-        <v>0.01010404305512733</v>
+        <v>0.01012325735292159</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>0.7651826219306963</v>
       </c>
       <c r="C99" t="n">
-        <v>0.008637233168811358</v>
+        <v>0.008656447466605615</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>0.770430368836245</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01535947620060602</v>
+        <v>0.01537869049840028</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>0.7691200000277214</v>
       </c>
       <c r="C101" t="n">
-        <v>0.02314299885700439</v>
+        <v>0.02316221315479864</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>0.775034231447028</v>
       </c>
       <c r="C102" t="n">
-        <v>0.008072322473952875</v>
+        <v>0.008091536771747131</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>0.7801122283800348</v>
       </c>
       <c r="C103" t="n">
-        <v>0.01908286737148181</v>
+        <v>0.01910208166927607</v>
       </c>
     </row>
     <row r="104">
@@ -1580,7 +1580,7 @@
         <v>0.785465704603942</v>
       </c>
       <c r="C104" t="n">
-        <v>0.01180287322123717</v>
+        <v>0.01182208751903143</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>0.784420642421139</v>
       </c>
       <c r="C105" t="n">
-        <v>0.01034690625952827</v>
+        <v>0.01036612055732253</v>
       </c>
     </row>
     <row r="106">
@@ -1602,7 +1602,7 @@
         <v>0.7899807547948062</v>
       </c>
       <c r="C106" t="n">
-        <v>0.02855511681369658</v>
+        <v>0.02857433111149084</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>0.7894002943751297</v>
       </c>
       <c r="C107" t="n">
-        <v>0.01449132848953591</v>
+        <v>0.01451054278733016</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>0.7904932500289723</v>
       </c>
       <c r="C108" t="n">
-        <v>0.01622569001273401</v>
+        <v>0.01624490431052827</v>
       </c>
     </row>
     <row r="109">
@@ -1635,7 +1635,7 @@
         <v>0.7968135568932495</v>
       </c>
       <c r="C109" t="n">
-        <v>0.02113647357857185</v>
+        <v>0.02115568787636611</v>
       </c>
     </row>
     <row r="110">
@@ -1646,7 +1646,7 @@
         <v>0.8012551292912931</v>
       </c>
       <c r="C110" t="n">
-        <v>0.020175169523794</v>
+        <v>0.02019438382158826</v>
       </c>
     </row>
     <row r="111">
@@ -1657,7 +1657,7 @@
         <v>0.8051711845986539</v>
       </c>
       <c r="C111" t="n">
-        <v>0.01860363849263159</v>
+        <v>0.01862285279042585</v>
       </c>
     </row>
     <row r="112">
@@ -1668,7 +1668,7 @@
         <v>0.8076047335275425</v>
       </c>
       <c r="C112" t="n">
-        <v>0.02072715904763767</v>
+        <v>0.02074637334543192</v>
       </c>
     </row>
     <row r="113">
@@ -1679,7 +1679,7 @@
         <v>0.7992459317612498</v>
       </c>
       <c r="C113" t="n">
-        <v>0.008095273660922912</v>
+        <v>0.008114487958717168</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1690,7 @@
         <v>0.804823654129908</v>
       </c>
       <c r="C114" t="n">
-        <v>0.02017855997142312</v>
+        <v>0.02019777426921738</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +1701,7 @@
         <v>0.807193460451295</v>
       </c>
       <c r="C115" t="n">
-        <v>0.01972658566063684</v>
+        <v>0.0197457999584311</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>0.8102308673343551</v>
       </c>
       <c r="C116" t="n">
-        <v>0.002542941406734714</v>
+        <v>0.002562155704528971</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +1723,7 @@
         <v>0.8119497007302391</v>
       </c>
       <c r="C117" t="n">
-        <v>0.02119310411492146</v>
+        <v>0.02121231841271572</v>
       </c>
     </row>
     <row r="118">
@@ -1734,7 +1734,7 @@
         <v>0.8123065792245939</v>
       </c>
       <c r="C118" t="n">
-        <v>0.02186214970224491</v>
+        <v>0.02188136400003917</v>
       </c>
     </row>
     <row r="119">
@@ -1745,7 +1745,7 @@
         <v>0.813204275462639</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01152614719693529</v>
+        <v>0.01154536149472955</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>0.8045053811951083</v>
       </c>
       <c r="C120" t="n">
-        <v>0.008566499152671452</v>
+        <v>0.008585713450465708</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>0.8087532522432497</v>
       </c>
       <c r="C121" t="n">
-        <v>0.01762427673763591</v>
+        <v>0.01764349103543017</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>0.8000594821744693</v>
       </c>
       <c r="C122" t="n">
-        <v>0.01058125009380615</v>
+        <v>0.01060046439160041</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>0.7907591390204272</v>
       </c>
       <c r="C123" t="n">
-        <v>0.009900399498034507</v>
+        <v>0.009919613795828763</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>0.7946373621144878</v>
       </c>
       <c r="C124" t="n">
-        <v>0.02324456171324878</v>
+        <v>0.02326377601104303</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>0.7970386850997644</v>
       </c>
       <c r="C125" t="n">
-        <v>0.02203131028049565</v>
+        <v>0.02205052457828991</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>0.8018317183301447</v>
       </c>
       <c r="C126" t="n">
-        <v>0.02486359512501598</v>
+        <v>0.02488280942281023</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>0.7950733263967589</v>
       </c>
       <c r="C127" t="n">
-        <v>0.01932203372734952</v>
+        <v>0.01934124802514378</v>
       </c>
     </row>
     <row r="128">
@@ -1844,7 +1844,7 @@
         <v>0.7959481415507441</v>
       </c>
       <c r="C128" t="n">
-        <v>0.02499013992864594</v>
+        <v>0.02500935422644019</v>
       </c>
     </row>
     <row r="129">
@@ -1855,7 +1855,7 @@
         <v>0.8015179253099236</v>
       </c>
       <c r="C129" t="n">
-        <v>0.02107928139195607</v>
+        <v>0.02109849568975032</v>
       </c>
     </row>
     <row r="130">
@@ -1866,7 +1866,7 @@
         <v>0.8025473622121591</v>
       </c>
       <c r="C130" t="n">
-        <v>0.01920482613902112</v>
+        <v>0.01922404043681537</v>
       </c>
     </row>
     <row r="131">
@@ -1877,7 +1877,7 @@
         <v>0.8035450869149513</v>
       </c>
       <c r="C131" t="n">
-        <v>0.02260153079496257</v>
+        <v>0.02262074509275683</v>
       </c>
     </row>
     <row r="132">
@@ -1888,7 +1888,7 @@
         <v>0.80796395275341</v>
       </c>
       <c r="C132" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1899,7 +1899,7 @@
         <v>0.802087588431972</v>
       </c>
       <c r="C133" t="n">
-        <v>0.008689459820942862</v>
+        <v>0.008708674118737119</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>0.8029761007033764</v>
       </c>
       <c r="C134" t="n">
-        <v>0.01774424752999384</v>
+        <v>0.0177634618277881</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>0.7991657731919133</v>
       </c>
       <c r="C135" t="n">
-        <v>0.006058101038628966</v>
+        <v>0.006077315336423222</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>0.7837257960026989</v>
       </c>
       <c r="C136" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>0.7877750096092421</v>
       </c>
       <c r="C137" t="n">
-        <v>0.02721142810714623</v>
+        <v>0.02723064240494049</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>0.7805870849135229</v>
       </c>
       <c r="C138" t="n">
-        <v>0.01042472181987044</v>
+        <v>0.0104439361176647</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>0.7794903612733836</v>
       </c>
       <c r="C139" t="n">
-        <v>0.01606392513058866</v>
+        <v>0.01608313942838292</v>
       </c>
     </row>
     <row r="140">
@@ -1976,7 +1976,7 @@
         <v>0.7740330671040497</v>
       </c>
       <c r="C140" t="n">
-        <v>0.009110000675423184</v>
+        <v>0.009129214973217441</v>
       </c>
     </row>
     <row r="141">
@@ -1987,7 +1987,7 @@
         <v>0.7695620763210108</v>
       </c>
       <c r="C141" t="n">
-        <v>0.01355834824491672</v>
+        <v>0.01357756254271098</v>
       </c>
     </row>
     <row r="142">
@@ -1998,7 +1998,7 @@
         <v>0.768243398759808</v>
       </c>
       <c r="C142" t="n">
-        <v>0.01610338718649687</v>
+        <v>0.01612260148429113</v>
       </c>
     </row>
     <row r="143">
@@ -2009,7 +2009,7 @@
         <v>0.7684648817179566</v>
       </c>
       <c r="C143" t="n">
-        <v>0.01046576676370224</v>
+        <v>0.01048498106149649</v>
       </c>
     </row>
     <row r="144">
@@ -2020,7 +2020,7 @@
         <v>0.7686474622823125</v>
       </c>
       <c r="C144" t="n">
-        <v>0.01797149666889547</v>
+        <v>0.01799071096668973</v>
       </c>
     </row>
     <row r="145">
@@ -2031,7 +2031,7 @@
         <v>0.7676345100902382</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0115041179070252</v>
+        <v>0.01152333220481946</v>
       </c>
     </row>
     <row r="146">
@@ -2042,7 +2042,7 @@
         <v>0.7708269570087863</v>
       </c>
       <c r="C146" t="n">
-        <v>0.01831737381108098</v>
+        <v>0.01833658810887524</v>
       </c>
     </row>
     <row r="147">
@@ -2053,7 +2053,7 @@
         <v>0.7777989652494208</v>
       </c>
       <c r="C147" t="n">
-        <v>0.01669922030723636</v>
+        <v>0.01671843460503062</v>
       </c>
     </row>
     <row r="148">
@@ -2064,7 +2064,7 @@
         <v>0.7765415871736975</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0142648398054762</v>
+        <v>0.01428405410327046</v>
       </c>
     </row>
     <row r="149">
@@ -2075,7 +2075,7 @@
         <v>0.7788182329411332</v>
       </c>
       <c r="C149" t="n">
-        <v>0.01349863025016181</v>
+        <v>0.01351784454795607</v>
       </c>
     </row>
     <row r="150">
@@ -2086,7 +2086,7 @@
         <v>0.7820363491704784</v>
       </c>
       <c r="C150" t="n">
-        <v>0.01574336393312426</v>
+        <v>0.01576257823091852</v>
       </c>
     </row>
     <row r="151">
@@ -2097,7 +2097,7 @@
         <v>0.7842753234362693</v>
       </c>
       <c r="C151" t="n">
-        <v>0.01674639497225292</v>
+        <v>0.01676560927004718</v>
       </c>
     </row>
     <row r="152">
@@ -2108,7 +2108,7 @@
         <v>0.7736205078198111</v>
       </c>
       <c r="C152" t="n">
-        <v>0.005297121968763097</v>
+        <v>0.005316336266557353</v>
       </c>
     </row>
     <row r="153">
@@ -2119,7 +2119,7 @@
         <v>0.7798489414138603</v>
       </c>
       <c r="C153" t="n">
-        <v>0.01415652155352198</v>
+        <v>0.01417573585131624</v>
       </c>
     </row>
     <row r="154">
@@ -2130,7 +2130,7 @@
         <v>0.7764683723142056</v>
       </c>
       <c r="C154" t="n">
-        <v>0.02013077776379502</v>
+        <v>0.02014999206158928</v>
       </c>
     </row>
     <row r="155">
@@ -2141,7 +2141,7 @@
         <v>0.7817365953293377</v>
       </c>
       <c r="C155" t="n">
-        <v>0.02255872674539993</v>
+        <v>0.02257794104319419</v>
       </c>
     </row>
     <row r="156">
@@ -2152,7 +2152,7 @@
         <v>0.7852175598382065</v>
       </c>
       <c r="C156" t="n">
-        <v>0.01700909379058982</v>
+        <v>0.01702830808838407</v>
       </c>
     </row>
     <row r="157">
@@ -2163,7 +2163,7 @@
         <v>0.7896183597384906</v>
       </c>
       <c r="C157" t="n">
-        <v>0.01601522425605735</v>
+        <v>0.01603443855385161</v>
       </c>
     </row>
     <row r="158">
@@ -2174,7 +2174,7 @@
         <v>0.7924287289002215</v>
       </c>
       <c r="C158" t="n">
-        <v>0.01389928335970442</v>
+        <v>0.01391849765749867</v>
       </c>
     </row>
     <row r="159">
@@ -2185,7 +2185,7 @@
         <v>0.7951368793084926</v>
       </c>
       <c r="C159" t="n">
-        <v>0.01825484247477891</v>
+        <v>0.01827405677257317</v>
       </c>
     </row>
     <row r="160">
@@ -2196,7 +2196,7 @@
         <v>0.7865625283829963</v>
       </c>
       <c r="C160" t="n">
-        <v>0.01515154204754969</v>
+        <v>0.01517075634534395</v>
       </c>
     </row>
     <row r="161">
@@ -2207,7 +2207,7 @@
         <v>0.7915157833874213</v>
       </c>
       <c r="C161" t="n">
-        <v>0.01842615570397846</v>
+        <v>0.01844537000177271</v>
       </c>
     </row>
     <row r="162">
@@ -2218,7 +2218,7 @@
         <v>0.7941003571550405</v>
       </c>
       <c r="C162" t="n">
-        <v>0.01852361431979838</v>
+        <v>0.01854282861759263</v>
       </c>
     </row>
     <row r="163">
@@ -2229,7 +2229,7 @@
         <v>0.7993957805834196</v>
       </c>
       <c r="C163" t="n">
-        <v>0.01770746364558331</v>
+        <v>0.01772667794337757</v>
       </c>
     </row>
     <row r="164">
@@ -2240,7 +2240,7 @@
         <v>0.8008498974560714</v>
       </c>
       <c r="C164" t="n">
-        <v>0.01710101437148286</v>
+        <v>0.01712022866927712</v>
       </c>
     </row>
     <row r="165">
@@ -2251,7 +2251,7 @@
         <v>0.8036583371202591</v>
       </c>
       <c r="C165" t="n">
-        <v>0.01438771889052465</v>
+        <v>0.01440693318831891</v>
       </c>
     </row>
     <row r="166">
@@ -2262,7 +2262,7 @@
         <v>0.8060158382493096</v>
       </c>
       <c r="C166" t="n">
-        <v>0.02272818592327929</v>
+        <v>0.02274740022107355</v>
       </c>
     </row>
     <row r="167">
@@ -2273,7 +2273,7 @@
         <v>0.8110414413250399</v>
       </c>
       <c r="C167" t="n">
-        <v>0.02234534280729576</v>
+        <v>0.02236455710509002</v>
       </c>
     </row>
     <row r="168">
@@ -2284,7 +2284,7 @@
         <v>0.8103640182143669</v>
       </c>
       <c r="C168" t="n">
-        <v>0.01868873663177184</v>
+        <v>0.0187079509295661</v>
       </c>
     </row>
     <row r="169">
@@ -2295,7 +2295,7 @@
         <v>0.8139725984636091</v>
       </c>
       <c r="C169" t="n">
-        <v>0.02141350841614961</v>
+        <v>0.02143272271394386</v>
       </c>
     </row>
     <row r="170">
@@ -2306,7 +2306,7 @@
         <v>0.8112930268323559</v>
       </c>
       <c r="C170" t="n">
-        <v>0.01687180729667654</v>
+        <v>0.01689102159447079</v>
       </c>
     </row>
     <row r="171">
@@ -2317,7 +2317,7 @@
         <v>0.8162017056022828</v>
       </c>
       <c r="C171" t="n">
-        <v>0.02335585115273618</v>
+        <v>0.02337506545053044</v>
       </c>
     </row>
     <row r="172">
@@ -2328,7 +2328,7 @@
         <v>0.8170527074066907</v>
       </c>
       <c r="C172" t="n">
-        <v>0.02021749041695686</v>
+        <v>0.02023670471475112</v>
       </c>
     </row>
     <row r="173">
@@ -2339,7 +2339,7 @@
         <v>0.8086419985822558</v>
       </c>
       <c r="C173" t="n">
-        <v>0.01292580386195747</v>
+        <v>0.01294501815975172</v>
       </c>
     </row>
     <row r="174">
@@ -2350,7 +2350,7 @@
         <v>0.8072796185623256</v>
       </c>
       <c r="C174" t="n">
-        <v>0.01578457322267941</v>
+        <v>0.01580378752047367</v>
       </c>
     </row>
     <row r="175">
@@ -2361,7 +2361,7 @@
         <v>0.8101516153756557</v>
       </c>
       <c r="C175" t="n">
-        <v>0.01751809470872037</v>
+        <v>0.01753730900651463</v>
       </c>
     </row>
     <row r="176">
@@ -2372,7 +2372,7 @@
         <v>0.8153844132367876</v>
       </c>
       <c r="C176" t="n">
-        <v>0.01895596085810309</v>
+        <v>0.01897517515589734</v>
       </c>
     </row>
     <row r="177">
@@ -2383,7 +2383,7 @@
         <v>0.7980235636647725</v>
       </c>
       <c r="C177" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="178">
@@ -2394,7 +2394,7 @@
         <v>0.8040754979681835</v>
       </c>
       <c r="C178" t="n">
-        <v>0.02531530183445822</v>
+        <v>0.02533451613225248</v>
       </c>
     </row>
     <row r="179">
@@ -2405,7 +2405,7 @@
         <v>0.8090897243238814</v>
       </c>
       <c r="C179" t="n">
-        <v>0.01916128645620615</v>
+        <v>0.0191805007540004</v>
       </c>
     </row>
     <row r="180">
@@ -2416,7 +2416,7 @@
         <v>0.8135521702261691</v>
       </c>
       <c r="C180" t="n">
-        <v>0.01635392027876495</v>
+        <v>0.01637313457655921</v>
       </c>
     </row>
     <row r="181">
@@ -2427,7 +2427,7 @@
         <v>0.8174930572833278</v>
       </c>
       <c r="C181" t="n">
-        <v>0.01820228983979446</v>
+        <v>0.01822150413758872</v>
       </c>
     </row>
     <row r="182">
@@ -2438,7 +2438,7 @@
         <v>0.8102516791134154</v>
       </c>
       <c r="C182" t="n">
-        <v>0.01143565920503504</v>
+        <v>0.0114548735028293</v>
       </c>
     </row>
     <row r="183">
@@ -2449,7 +2449,7 @@
         <v>0.8140703213827245</v>
       </c>
       <c r="C183" t="n">
-        <v>0.02195250005632505</v>
+        <v>0.02197171435411931</v>
       </c>
     </row>
     <row r="184">
@@ -2460,7 +2460,7 @@
         <v>0.8189306497005785</v>
       </c>
       <c r="C184" t="n">
-        <v>0.02165678008234022</v>
+        <v>0.02167599438013448</v>
       </c>
     </row>
     <row r="185">
@@ -2471,7 +2471,7 @@
         <v>0.8209987853775983</v>
       </c>
       <c r="C185" t="n">
-        <v>0.02342299860708766</v>
+        <v>0.02344221290488192</v>
       </c>
     </row>
     <row r="186">
@@ -2482,7 +2482,7 @@
         <v>0.8257947994212651</v>
       </c>
       <c r="C186" t="n">
-        <v>0.02236802971814507</v>
+        <v>0.02238724401593933</v>
       </c>
     </row>
     <row r="187">
@@ -2493,7 +2493,7 @@
         <v>0.8210237120744053</v>
       </c>
       <c r="C187" t="n">
-        <v>0.01224930423992833</v>
+        <v>0.01226851853772258</v>
       </c>
     </row>
     <row r="188">
@@ -2504,7 +2504,7 @@
         <v>0.8164732072131483</v>
       </c>
       <c r="C188" t="n">
-        <v>0.01713210287602503</v>
+        <v>0.01715131717381929</v>
       </c>
     </row>
     <row r="189">
@@ -2515,7 +2515,7 @@
         <v>0.8213171728287424</v>
       </c>
       <c r="C189" t="n">
-        <v>0.01949718827162206</v>
+        <v>0.01951640256941631</v>
       </c>
     </row>
     <row r="190">
@@ -2526,7 +2526,7 @@
         <v>0.8083982435444479</v>
       </c>
       <c r="C190" t="n">
-        <v>0.009270751237871052</v>
+        <v>0.009289965535665308</v>
       </c>
     </row>
     <row r="191">
@@ -2537,7 +2537,7 @@
         <v>0.8130512035642906</v>
       </c>
       <c r="C191" t="n">
-        <v>0.01434884468916748</v>
+        <v>0.01436805898696173</v>
       </c>
     </row>
     <row r="192">
@@ -2548,7 +2548,7 @@
         <v>0.8172437246110971</v>
       </c>
       <c r="C192" t="n">
-        <v>0.02064842298357508</v>
+        <v>0.02066763728136933</v>
       </c>
     </row>
     <row r="193">
@@ -2559,7 +2559,7 @@
         <v>0.8138010477070015</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0135665125811319</v>
+        <v>0.01358572687892616</v>
       </c>
     </row>
     <row r="194">
@@ -2570,7 +2570,7 @@
         <v>0.8115650180460449</v>
       </c>
       <c r="C194" t="n">
-        <v>0.01763426255686048</v>
+        <v>0.01765347685465474</v>
       </c>
     </row>
     <row r="195">
@@ -2581,7 +2581,7 @@
         <v>0.8161900504191668</v>
       </c>
       <c r="C195" t="n">
-        <v>0.02016974952729773</v>
+        <v>0.02018896382509199</v>
       </c>
     </row>
     <row r="196">
@@ -2592,7 +2592,7 @@
         <v>0.812263650711657</v>
       </c>
       <c r="C196" t="n">
-        <v>0.01207502210658833</v>
+        <v>0.01209423640438259</v>
       </c>
     </row>
     <row r="197">
@@ -2603,7 +2603,7 @@
         <v>0.8147909115063333</v>
       </c>
       <c r="C197" t="n">
-        <v>0.01975991464635625</v>
+        <v>0.01977912894415051</v>
       </c>
     </row>
     <row r="198">
@@ -2614,7 +2614,7 @@
         <v>0.819247195163318</v>
       </c>
       <c r="C198" t="n">
-        <v>0.01575809268287345</v>
+        <v>0.01577730698066771</v>
       </c>
     </row>
     <row r="199">
@@ -2625,7 +2625,7 @@
         <v>0.8245341221680322</v>
       </c>
       <c r="C199" t="n">
-        <v>0.01140438258413361</v>
+        <v>0.01142359688192787</v>
       </c>
     </row>
     <row r="200">
@@ -2636,7 +2636,7 @@
         <v>0.8246078816614916</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0166928186713364</v>
+        <v>0.01671203296913066</v>
       </c>
     </row>
     <row r="201">
@@ -2647,7 +2647,7 @@
         <v>0.8281435792325545</v>
       </c>
       <c r="C201" t="n">
-        <v>0.02382137902451108</v>
+        <v>0.02384059332230534</v>
       </c>
     </row>
     <row r="202">
@@ -2658,7 +2658,7 @@
         <v>0.8260063144687988</v>
       </c>
       <c r="C202" t="n">
-        <v>0.02017011388062059</v>
+        <v>0.02018932817841485</v>
       </c>
     </row>
     <row r="203">
@@ -2669,7 +2669,7 @@
         <v>0.8265025572868344</v>
       </c>
       <c r="C203" t="n">
-        <v>0.02532943503442695</v>
+        <v>0.02534864933222121</v>
       </c>
     </row>
     <row r="204">
@@ -2680,7 +2680,7 @@
         <v>0.8094080094060221</v>
       </c>
       <c r="C204" t="n">
-        <v>0.005136076460698896</v>
+        <v>0.005155290758493152</v>
       </c>
     </row>
     <row r="205">
@@ -2691,7 +2691,7 @@
         <v>0.8079059304952858</v>
       </c>
       <c r="C205" t="n">
-        <v>0.01217157222496326</v>
+        <v>0.01219078652275751</v>
       </c>
     </row>
     <row r="206">
@@ -2702,7 +2702,7 @@
         <v>0.8098581780290348</v>
       </c>
       <c r="C206" t="n">
-        <v>0.01573656303365432</v>
+        <v>0.01575577733144858</v>
       </c>
     </row>
     <row r="207">
@@ -2713,7 +2713,7 @@
         <v>0.8108486709975248</v>
       </c>
       <c r="C207" t="n">
-        <v>0.01596335829015163</v>
+        <v>0.01598257258794589</v>
       </c>
     </row>
     <row r="208">
@@ -2724,7 +2724,7 @@
         <v>0.8119858319233344</v>
       </c>
       <c r="C208" t="n">
-        <v>0.02957562412818863</v>
+        <v>0.02959483842598289</v>
       </c>
     </row>
     <row r="209">
@@ -2735,7 +2735,7 @@
         <v>0.815675326134655</v>
       </c>
       <c r="C209" t="n">
-        <v>0.02355305384543896</v>
+        <v>0.02357226814323321</v>
       </c>
     </row>
     <row r="210">
@@ -2746,7 +2746,7 @@
         <v>0.8173500096762967</v>
       </c>
       <c r="C210" t="n">
-        <v>0.01920663742341405</v>
+        <v>0.0192258517212083</v>
       </c>
     </row>
     <row r="211">
@@ -2757,7 +2757,7 @@
         <v>0.8166045707505778</v>
       </c>
       <c r="C211" t="n">
-        <v>0.01673720939744807</v>
+        <v>0.01675642369524232</v>
       </c>
     </row>
     <row r="212">
@@ -2768,7 +2768,7 @@
         <v>0.803661096796337</v>
       </c>
       <c r="C212" t="n">
-        <v>0.002472956122053492</v>
+        <v>0.002492170419847749</v>
       </c>
     </row>
     <row r="213">
@@ -2779,7 +2779,7 @@
         <v>0.7997042042474305</v>
       </c>
       <c r="C213" t="n">
-        <v>0.01214623688131845</v>
+        <v>0.01216545117911271</v>
       </c>
     </row>
     <row r="214">
@@ -2790,7 +2790,7 @@
         <v>0.7917637509876239</v>
       </c>
       <c r="C214" t="n">
-        <v>0.009308537736412931</v>
+        <v>0.009327752034207187</v>
       </c>
     </row>
     <row r="215">
@@ -2801,7 +2801,7 @@
         <v>0.7983209825082106</v>
       </c>
       <c r="C215" t="n">
-        <v>0.01644594999394126</v>
+        <v>0.01646516429173552</v>
       </c>
     </row>
     <row r="216">
@@ -2812,7 +2812,7 @@
         <v>0.7994560061289181</v>
       </c>
       <c r="C216" t="n">
-        <v>0.01075744664516569</v>
+        <v>0.01077666094295995</v>
       </c>
     </row>
     <row r="217">
@@ -2823,7 +2823,7 @@
         <v>0.8034713142657448</v>
       </c>
       <c r="C217" t="n">
-        <v>0.01908958250187761</v>
+        <v>0.01910879679967187</v>
       </c>
     </row>
     <row r="218">
@@ -2834,7 +2834,7 @@
         <v>0.8076280425164686</v>
       </c>
       <c r="C218" t="n">
-        <v>0.01939808253176176</v>
+        <v>0.01941729682955602</v>
       </c>
     </row>
     <row r="219">
@@ -2845,7 +2845,7 @@
         <v>0.8089024936658984</v>
       </c>
       <c r="C219" t="n">
-        <v>0.01862535662427461</v>
+        <v>0.01864457092206886</v>
       </c>
     </row>
     <row r="220">
@@ -2856,7 +2856,7 @@
         <v>0.8107094471982383</v>
       </c>
       <c r="C220" t="n">
-        <v>0.01431748635472717</v>
+        <v>0.01433670065252142</v>
       </c>
     </row>
     <row r="221">
@@ -2867,7 +2867,7 @@
         <v>0.8166504488897223</v>
       </c>
       <c r="C221" t="n">
-        <v>0.01659218856087245</v>
+        <v>0.0166114028586667</v>
       </c>
     </row>
     <row r="222">
@@ -2878,7 +2878,7 @@
         <v>0.8207450287069935</v>
       </c>
       <c r="C222" t="n">
-        <v>0.02142028248619961</v>
+        <v>0.02143949678399387</v>
       </c>
     </row>
     <row r="223">
@@ -2889,7 +2889,7 @@
         <v>0.8262042451819089</v>
       </c>
       <c r="C223" t="n">
-        <v>0.02039952705125766</v>
+        <v>0.02041874134905192</v>
       </c>
     </row>
     <row r="224">
@@ -2900,7 +2900,7 @@
         <v>0.8289733767112123</v>
       </c>
       <c r="C224" t="n">
-        <v>0.01736294353577584</v>
+        <v>0.0173821578335701</v>
       </c>
     </row>
     <row r="225">
@@ -2911,7 +2911,7 @@
         <v>0.8318613267830897</v>
       </c>
       <c r="C225" t="n">
-        <v>0.01758189660313855</v>
+        <v>0.01760111090093281</v>
       </c>
     </row>
     <row r="226">
@@ -2922,7 +2922,7 @@
         <v>0.8337125379192449</v>
       </c>
       <c r="C226" t="n">
-        <v>0.01713512164273641</v>
+        <v>0.01715433594053066</v>
       </c>
     </row>
     <row r="227">
@@ -2933,7 +2933,7 @@
         <v>0.8351731750071406</v>
       </c>
       <c r="C227" t="n">
-        <v>0.01925170181074644</v>
+        <v>0.0192709161085407</v>
       </c>
     </row>
     <row r="228">
@@ -2944,7 +2944,7 @@
         <v>0.8390020085549224</v>
       </c>
       <c r="C228" t="n">
-        <v>0.01899412165973766</v>
+        <v>0.01901333595753191</v>
       </c>
     </row>
     <row r="229">
@@ -2955,7 +2955,7 @@
         <v>0.8421008118502957</v>
       </c>
       <c r="C229" t="n">
-        <v>0.01960272608193301</v>
+        <v>0.01962194037972727</v>
       </c>
     </row>
     <row r="230">
@@ -2966,7 +2966,7 @@
         <v>0.8437637359049379</v>
       </c>
       <c r="C230" t="n">
-        <v>0.01412067996172012</v>
+        <v>0.01413989425951437</v>
       </c>
     </row>
     <row r="231">
@@ -2977,7 +2977,7 @@
         <v>0.842440963918266</v>
       </c>
       <c r="C231" t="n">
-        <v>0.008561177145743042</v>
+        <v>0.008580391443537299</v>
       </c>
     </row>
     <row r="232">
@@ -2988,7 +2988,7 @@
         <v>0.8424316784519142</v>
       </c>
       <c r="C232" t="n">
-        <v>0.01491505199782892</v>
+        <v>0.01493426629562318</v>
       </c>
     </row>
     <row r="233">
@@ -2999,7 +2999,7 @@
         <v>0.8445141136755084</v>
       </c>
       <c r="C233" t="n">
-        <v>0.01541041691399167</v>
+        <v>0.01542963121178592</v>
       </c>
     </row>
     <row r="234">
@@ -3010,7 +3010,7 @@
         <v>0.8456988260217736</v>
       </c>
       <c r="C234" t="n">
-        <v>0.01590154254351526</v>
+        <v>0.01592075684130952</v>
       </c>
     </row>
     <row r="235">
@@ -3021,7 +3021,7 @@
         <v>0.8404098680964848</v>
       </c>
       <c r="C235" t="n">
-        <v>0.01661495241962655</v>
+        <v>0.01663416671742081</v>
       </c>
     </row>
     <row r="236">
@@ -3032,7 +3032,7 @@
         <v>0.8426784773267385</v>
       </c>
       <c r="C236" t="n">
-        <v>0.0151056760588823</v>
+        <v>0.01512489035667655</v>
       </c>
     </row>
     <row r="237">
@@ -3043,7 +3043,7 @@
         <v>0.8442849350846411</v>
       </c>
       <c r="C237" t="n">
-        <v>0.01873220565134705</v>
+        <v>0.01875141994914131</v>
       </c>
     </row>
     <row r="238">
@@ -3054,7 +3054,7 @@
         <v>0.8462757869955118</v>
       </c>
       <c r="C238" t="n">
-        <v>0.01265258142870774</v>
+        <v>0.012671795726502</v>
       </c>
     </row>
     <row r="239">
@@ -3065,7 +3065,7 @@
         <v>0.8476361274547611</v>
       </c>
       <c r="C239" t="n">
-        <v>0.01589519361251542</v>
+        <v>0.01591440791030968</v>
       </c>
     </row>
     <row r="240">
@@ -3076,7 +3076,7 @@
         <v>0.847550609783323</v>
       </c>
       <c r="C240" t="n">
-        <v>0.01335265412766504</v>
+        <v>0.01337186842545929</v>
       </c>
     </row>
     <row r="241">
@@ -3087,7 +3087,7 @@
         <v>0.8467126746272897</v>
       </c>
       <c r="C241" t="n">
-        <v>0.01674754065812849</v>
+        <v>0.01676675495592275</v>
       </c>
     </row>
     <row r="242">
@@ -3098,7 +3098,7 @@
         <v>0.8409868274545526</v>
       </c>
       <c r="C242" t="n">
-        <v>0.01094954415071186</v>
+        <v>0.01096875844850612</v>
       </c>
     </row>
     <row r="243">
@@ -3109,7 +3109,7 @@
         <v>0.8428984692242146</v>
       </c>
       <c r="C243" t="n">
-        <v>0.01432395643382052</v>
+        <v>0.01434317073161478</v>
       </c>
     </row>
     <row r="244">
@@ -3120,7 +3120,7 @@
         <v>0.8452159370974316</v>
       </c>
       <c r="C244" t="n">
-        <v>0.01367763850797514</v>
+        <v>0.0136968528057694</v>
       </c>
     </row>
     <row r="245">
@@ -3131,7 +3131,7 @@
         <v>0.8469171543223674</v>
       </c>
       <c r="C245" t="n">
-        <v>0.01399070777566359</v>
+        <v>0.01400992207345784</v>
       </c>
     </row>
     <row r="246">
@@ -3142,7 +3142,7 @@
         <v>0.8410257839298437</v>
       </c>
       <c r="C246" t="n">
-        <v>0.01229356680945207</v>
+        <v>0.01231278110724632</v>
       </c>
     </row>
     <row r="247">
@@ -3153,7 +3153,7 @@
         <v>0.8428998200020749</v>
       </c>
       <c r="C247" t="n">
-        <v>0.01104652081820274</v>
+        <v>0.011065735115997</v>
       </c>
     </row>
     <row r="248">
@@ -3164,7 +3164,7 @@
         <v>0.844995837102928</v>
       </c>
       <c r="C248" t="n">
-        <v>0.01540988522170333</v>
+        <v>0.01542909951949759</v>
       </c>
     </row>
     <row r="249">
@@ -3175,7 +3175,7 @@
         <v>0.8454628775782981</v>
       </c>
       <c r="C249" t="n">
-        <v>0.0142055779923036</v>
+        <v>0.01422479229009786</v>
       </c>
     </row>
     <row r="250">
@@ -3186,7 +3186,7 @@
         <v>0.8317875597597506</v>
       </c>
       <c r="C250" t="n">
-        <v>0.001575314726593484</v>
+        <v>0.001594529024387741</v>
       </c>
     </row>
     <row r="251">
@@ -3197,7 +3197,7 @@
         <v>0.8341131856082487</v>
       </c>
       <c r="C251" t="n">
-        <v>0.02009380404382341</v>
+        <v>0.02011301834161767</v>
       </c>
     </row>
     <row r="252">
@@ -3208,7 +3208,7 @@
         <v>0.8273500063109617</v>
       </c>
       <c r="C252" t="n">
-        <v>0.009300559151292258</v>
+        <v>0.009319773449086514</v>
       </c>
     </row>
     <row r="253">
@@ -3219,7 +3219,7 @@
         <v>0.8101740565661719</v>
       </c>
       <c r="C253" t="n">
-        <v>2.490453973206997e-06</v>
+        <v>2.170475176746369e-05</v>
       </c>
     </row>
     <row r="254">
@@ -3230,7 +3230,7 @@
         <v>0.810982974995009</v>
       </c>
       <c r="C254" t="n">
-        <v>0.01180112043260781</v>
+        <v>0.01182033473040207</v>
       </c>
     </row>
     <row r="255">
@@ -3241,7 +3241,7 @@
         <v>0.8144220211882135</v>
       </c>
       <c r="C255" t="n">
-        <v>0.01699101596383988</v>
+        <v>0.01701023026163414</v>
       </c>
     </row>
     <row r="256">
@@ -3252,7 +3252,7 @@
         <v>0.8204052171607398</v>
       </c>
       <c r="C256" t="n">
-        <v>0.01879885118512256</v>
+        <v>0.01881806548291682</v>
       </c>
     </row>
     <row r="257">
@@ -3263,7 +3263,7 @@
         <v>0.8253087901170223</v>
       </c>
       <c r="C257" t="n">
-        <v>0.01585754087786788</v>
+        <v>0.01587675517566213</v>
       </c>
     </row>
     <row r="258">
@@ -3274,7 +3274,7 @@
         <v>0.8304959541906685</v>
       </c>
       <c r="C258" t="n">
-        <v>0.0157669105360449</v>
+        <v>0.01578612483383916</v>
       </c>
     </row>
     <row r="259">
@@ -3285,7 +3285,7 @@
         <v>0.8338929938370938</v>
       </c>
       <c r="C259" t="n">
-        <v>0.01576046383241751</v>
+        <v>0.01577967813021177</v>
       </c>
     </row>
     <row r="260">
@@ -3296,7 +3296,7 @@
         <v>0.8378612377887079</v>
       </c>
       <c r="C260" t="n">
-        <v>0.01670229286460567</v>
+        <v>0.01672150716239992</v>
       </c>
     </row>
     <row r="261">
@@ -3307,7 +3307,7 @@
         <v>0.839257557839501</v>
       </c>
       <c r="C261" t="n">
-        <v>0.01384261572616056</v>
+        <v>0.01386183002395482</v>
       </c>
     </row>
     <row r="262">
@@ -3318,7 +3318,7 @@
         <v>0.8426619757709168</v>
       </c>
       <c r="C262" t="n">
-        <v>0.01327136963294276</v>
+        <v>0.01329058393073702</v>
       </c>
     </row>
     <row r="263">
@@ -3329,7 +3329,7 @@
         <v>0.8446383160359952</v>
       </c>
       <c r="C263" t="n">
-        <v>0.01315525979401391</v>
+        <v>0.01317447409180817</v>
       </c>
     </row>
     <row r="264">
@@ -3340,7 +3340,7 @@
         <v>0.8370714261324422</v>
       </c>
       <c r="C264" t="n">
-        <v>0.01274897597145127</v>
+        <v>0.01276819026924553</v>
       </c>
     </row>
     <row r="265">
@@ -3351,7 +3351,7 @@
         <v>0.8386900420034521</v>
       </c>
       <c r="C265" t="n">
-        <v>0.01319397682616762</v>
+        <v>0.01321319112396188</v>
       </c>
     </row>
     <row r="266">
@@ -3362,7 +3362,7 @@
         <v>0.8420310976610322</v>
       </c>
       <c r="C266" t="n">
-        <v>0.01006212523081364</v>
+        <v>0.01008133952860789</v>
       </c>
     </row>
     <row r="267">
@@ -3373,7 +3373,7 @@
         <v>0.8436849726973334</v>
       </c>
       <c r="C267" t="n">
-        <v>0.01483721456001792</v>
+        <v>0.01485642885781218</v>
       </c>
     </row>
     <row r="268">
@@ -3384,7 +3384,7 @@
         <v>0.8461191687611499</v>
       </c>
       <c r="C268" t="n">
-        <v>0.01512073031810554</v>
+        <v>0.0151399446158998</v>
       </c>
     </row>
     <row r="269">
@@ -3395,7 +3395,7 @@
         <v>0.8489550334875341</v>
       </c>
       <c r="C269" t="n">
-        <v>0.01310477938027267</v>
+        <v>0.01312399367806693</v>
       </c>
     </row>
     <row r="270">
@@ -3406,7 +3406,7 @@
         <v>0.8508661975996258</v>
       </c>
       <c r="C270" t="n">
-        <v>0.0148676276607549</v>
+        <v>0.01488684195854916</v>
       </c>
     </row>
     <row r="271">
@@ -3417,7 +3417,7 @@
         <v>0.8520164257180773</v>
       </c>
       <c r="C271" t="n">
-        <v>0.01902090460456611</v>
+        <v>0.01904011890236037</v>
       </c>
     </row>
     <row r="272">
@@ -3428,7 +3428,7 @@
         <v>0.8542134192333044</v>
       </c>
       <c r="C272" t="n">
-        <v>0.01295671912319061</v>
+        <v>0.01297593342098487</v>
       </c>
     </row>
     <row r="273">
@@ -3439,7 +3439,7 @@
         <v>0.8516186825848276</v>
       </c>
       <c r="C273" t="n">
-        <v>0.01114552198517594</v>
+        <v>0.01116473628297019</v>
       </c>
     </row>
     <row r="274">
@@ -3450,7 +3450,7 @@
         <v>0.8506157853591727</v>
       </c>
       <c r="C274" t="n">
-        <v>0.01291966209442036</v>
+        <v>0.01293887639221461</v>
       </c>
     </row>
     <row r="275">
@@ -3461,7 +3461,7 @@
         <v>0.8526640293407259</v>
       </c>
       <c r="C275" t="n">
-        <v>0.01420001261394651</v>
+        <v>0.01421922691174076</v>
       </c>
     </row>
     <row r="276">
@@ -3472,7 +3472,7 @@
         <v>0.8540679371826404</v>
       </c>
       <c r="C276" t="n">
-        <v>0.01313357186392151</v>
+        <v>0.01315278616171577</v>
       </c>
     </row>
     <row r="277">
@@ -3483,7 +3483,7 @@
         <v>0.8559762844987456</v>
       </c>
       <c r="C277" t="n">
-        <v>0.01204511398164049</v>
+        <v>0.01206432827943475</v>
       </c>
     </row>
     <row r="278">
@@ -3494,7 +3494,7 @@
         <v>0.8566772001195553</v>
       </c>
       <c r="C278" t="n">
-        <v>0.01135644616207947</v>
+        <v>0.01137566045987373</v>
       </c>
     </row>
     <row r="279">
@@ -3505,7 +3505,7 @@
         <v>0.858022648148531</v>
       </c>
       <c r="C279" t="n">
-        <v>0.01846187787271634</v>
+        <v>0.0184810921705106</v>
       </c>
     </row>
     <row r="280">
@@ -3516,7 +3516,7 @@
         <v>0.8582186305868974</v>
       </c>
       <c r="C280" t="n">
-        <v>0.0118198237248498</v>
+        <v>0.01183903802264406</v>
       </c>
     </row>
     <row r="281">
@@ -3527,7 +3527,7 @@
         <v>0.85818279637215</v>
       </c>
       <c r="C281" t="n">
-        <v>0.009805325365044918</v>
+        <v>0.009824539662839174</v>
       </c>
     </row>
     <row r="282">
@@ -3538,7 +3538,7 @@
         <v>0.8564293279462702</v>
       </c>
       <c r="C282" t="n">
-        <v>0.01244518489516477</v>
+        <v>0.01246439919295903</v>
       </c>
     </row>
     <row r="283">
@@ -3549,7 +3549,7 @@
         <v>0.8569456056733541</v>
       </c>
       <c r="C283" t="n">
-        <v>0.009783299727132424</v>
+        <v>0.009802514024926681</v>
       </c>
     </row>
     <row r="284">
@@ -3560,7 +3560,7 @@
         <v>0.8580886392176161</v>
       </c>
       <c r="C284" t="n">
-        <v>0.01240304352451129</v>
+        <v>0.01242225782230555</v>
       </c>
     </row>
     <row r="285">
@@ -3571,7 +3571,7 @@
         <v>0.8584698161130958</v>
       </c>
       <c r="C285" t="n">
-        <v>0.01188488315067342</v>
+        <v>0.01190409744846768</v>
       </c>
     </row>
     <row r="286">
@@ -3582,7 +3582,7 @@
         <v>0.8604383035471203</v>
       </c>
       <c r="C286" t="n">
-        <v>0.008170127398054334</v>
+        <v>0.00818934169584859</v>
       </c>
     </row>
     <row r="287">
@@ -3593,7 +3593,7 @@
         <v>0.8613857905961266</v>
       </c>
       <c r="C287" t="n">
-        <v>0.01145692934178491</v>
+        <v>0.01147614363957916</v>
       </c>
     </row>
     <row r="288">
@@ -3604,7 +3604,7 @@
         <v>0.8625341428616515</v>
       </c>
       <c r="C288" t="n">
-        <v>0.008936370942902137</v>
+        <v>0.008955585240696394</v>
       </c>
     </row>
     <row r="289">
@@ -3615,7 +3615,7 @@
         <v>0.8640608675933301</v>
       </c>
       <c r="C289" t="n">
-        <v>0.01363607509713399</v>
+        <v>0.01365528939492825</v>
       </c>
     </row>
     <row r="290">
@@ -3626,7 +3626,7 @@
         <v>0.8652247650921884</v>
       </c>
       <c r="C290" t="n">
-        <v>0.01316364891173388</v>
+        <v>0.01318286320952814</v>
       </c>
     </row>
     <row r="291">
@@ -3637,7 +3637,7 @@
         <v>0.8640738362040056</v>
       </c>
       <c r="C291" t="n">
-        <v>0.009652393276930004</v>
+        <v>0.00967160757472426</v>
       </c>
     </row>
     <row r="292">
@@ -3648,7 +3648,7 @@
         <v>0.8631835368156033</v>
       </c>
       <c r="C292" t="n">
-        <v>0.005045342620445231</v>
+        <v>0.005064556918239487</v>
       </c>
     </row>
     <row r="293">
@@ -3659,7 +3659,7 @@
         <v>0.8631584932303992</v>
       </c>
       <c r="C293" t="n">
-        <v>0.01063603089767861</v>
+        <v>0.01065524519547286</v>
       </c>
     </row>
     <row r="294">
@@ -3670,7 +3670,7 @@
         <v>0.8620892005339832</v>
       </c>
       <c r="C294" t="n">
-        <v>0.01337487130602664</v>
+        <v>0.0133940856038209</v>
       </c>
     </row>
     <row r="295">
@@ -3681,7 +3681,7 @@
         <v>0.8635277350999591</v>
       </c>
       <c r="C295" t="n">
-        <v>0.0100135737415252</v>
+        <v>0.01003278803931945</v>
       </c>
     </row>
     <row r="296">
@@ -3692,7 +3692,7 @@
         <v>0.8633537742172656</v>
       </c>
       <c r="C296" t="n">
-        <v>0.006838584819856872</v>
+        <v>0.006857799117651129</v>
       </c>
     </row>
     <row r="297">
@@ -3703,7 +3703,7 @@
         <v>0.8645675849086454</v>
       </c>
       <c r="C297" t="n">
-        <v>0.01193869511577927</v>
+        <v>0.01195790941357353</v>
       </c>
     </row>
     <row r="298">
@@ -3714,7 +3714,7 @@
         <v>0.8654475833249159</v>
       </c>
       <c r="C298" t="n">
-        <v>0.004802477218567414</v>
+        <v>0.004821691516361671</v>
       </c>
     </row>
     <row r="299">
@@ -3725,7 +3725,7 @@
         <v>0.8607652861258644</v>
       </c>
       <c r="C299" t="n">
-        <v>0.0109372983803589</v>
+        <v>0.01095651267815316</v>
       </c>
     </row>
     <row r="300">
@@ -3736,7 +3736,7 @@
         <v>0.8622119409234426</v>
       </c>
       <c r="C300" t="n">
-        <v>0.01469337668802449</v>
+        <v>0.01471259098581875</v>
       </c>
     </row>
     <row r="301">
@@ -3747,7 +3747,7 @@
         <v>0.8571110821277718</v>
       </c>
       <c r="C301" t="n">
-        <v>0.005252615141374656</v>
+        <v>0.005271829439168913</v>
       </c>
     </row>
     <row r="302">
@@ -3758,7 +3758,7 @@
         <v>0.8530396426823149</v>
       </c>
       <c r="C302" t="n">
-        <v>0.004684855863530533</v>
+        <v>0.00470407016132479</v>
       </c>
     </row>
     <row r="303">
@@ -3769,7 +3769,7 @@
         <v>0.855513038394651</v>
       </c>
       <c r="C303" t="n">
-        <v>0.003787408498184932</v>
+        <v>0.003806622795979189</v>
       </c>
     </row>
     <row r="304">
@@ -3780,7 +3780,7 @@
         <v>0.857111439633648</v>
       </c>
       <c r="C304" t="n">
-        <v>0.01190732043076766</v>
+        <v>0.01192653472856191</v>
       </c>
     </row>
     <row r="305">
@@ -3791,7 +3791,7 @@
         <v>0.8585199894254276</v>
       </c>
       <c r="C305" t="n">
-        <v>0.006716358017607756</v>
+        <v>0.006735572315402012</v>
       </c>
     </row>
     <row r="306">
@@ -3802,7 +3802,7 @@
         <v>0.855665363917487</v>
       </c>
       <c r="C306" t="n">
-        <v>0.008787106806905032</v>
+        <v>0.008806321104699288</v>
       </c>
     </row>
     <row r="307">
@@ -3813,7 +3813,7 @@
         <v>0.8575238528852062</v>
       </c>
       <c r="C307" t="n">
-        <v>0.01072181881100092</v>
+        <v>0.01074103310879517</v>
       </c>
     </row>
     <row r="308">
@@ -3824,7 +3824,7 @@
         <v>0.8595554773453875</v>
       </c>
       <c r="C308" t="n">
-        <v>0.007614545798080237</v>
+        <v>0.007633760095874493</v>
       </c>
     </row>
     <row r="309">
@@ -3835,7 +3835,7 @@
         <v>0.8614020877200821</v>
       </c>
       <c r="C309" t="n">
-        <v>0.007401106583360573</v>
+        <v>0.007420320881154829</v>
       </c>
     </row>
     <row r="310">
@@ -3846,7 +3846,7 @@
         <v>0.863143218318105</v>
       </c>
       <c r="C310" t="n">
-        <v>0.008789817451592992</v>
+        <v>0.008809031749387249</v>
       </c>
     </row>
     <row r="311">
@@ -3857,7 +3857,7 @@
         <v>0.8647212666744166</v>
       </c>
       <c r="C311" t="n">
-        <v>0.00835392497727728</v>
+        <v>0.008373139275071537</v>
       </c>
     </row>
     <row r="312">
@@ -3868,7 +3868,7 @@
         <v>0.8659687990285329</v>
       </c>
       <c r="C312" t="n">
-        <v>0.007051422782534478</v>
+        <v>0.007070637080328734</v>
       </c>
     </row>
     <row r="313">
@@ -3879,7 +3879,7 @@
         <v>0.8667213852773726</v>
       </c>
       <c r="C313" t="n">
-        <v>0.01097510283947802</v>
+        <v>0.01099431713727228</v>
       </c>
     </row>
     <row r="314">
@@ -3890,7 +3890,7 @@
         <v>0.8676834941422639</v>
       </c>
       <c r="C314" t="n">
-        <v>0.007202029678397235</v>
+        <v>0.007221243976191491</v>
       </c>
     </row>
     <row r="315">
@@ -3901,7 +3901,7 @@
         <v>0.8679682796911229</v>
       </c>
       <c r="C315" t="n">
-        <v>0.007554571002842145</v>
+        <v>0.007573785300636402</v>
       </c>
     </row>
     <row r="316">
@@ -3912,7 +3912,7 @@
         <v>0.868447531419034</v>
       </c>
       <c r="C316" t="n">
-        <v>0.005200792613315671</v>
+        <v>0.005220006911109927</v>
       </c>
     </row>
     <row r="317">
@@ -3923,7 +3923,7 @@
         <v>0.8662795730987681</v>
       </c>
       <c r="C317" t="n">
-        <v>0.005914946529361155</v>
+        <v>0.005934160827155411</v>
       </c>
     </row>
     <row r="318">
@@ -3934,7 +3934,7 @@
         <v>0.8670433103855616</v>
       </c>
       <c r="C318" t="n">
-        <v>0.004705698537617082</v>
+        <v>0.004724912835411339</v>
       </c>
     </row>
     <row r="319">
@@ -3945,7 +3945,7 @@
         <v>0.8673209706202277</v>
       </c>
       <c r="C319" t="n">
-        <v>0.007257116391545262</v>
+        <v>0.007276330689339519</v>
       </c>
     </row>
     <row r="320">
@@ -3956,7 +3956,7 @@
         <v>0.8681980439866849</v>
       </c>
       <c r="C320" t="n">
-        <v>0.006636879709380782</v>
+        <v>0.006656094007175038</v>
       </c>
     </row>
     <row r="321">
@@ -3967,7 +3967,7 @@
         <v>0.86944271087929</v>
       </c>
       <c r="C321" t="n">
-        <v>0.004274437376758154</v>
+        <v>0.00429365167455241</v>
       </c>
     </row>
     <row r="322">
@@ -3978,7 +3978,7 @@
         <v>0.8682839610491609</v>
       </c>
       <c r="C322" t="n">
-        <v>0.005157429124836515</v>
+        <v>0.005176643422630771</v>
       </c>
     </row>
     <row r="323">
@@ -3989,7 +3989,7 @@
         <v>0.8683204792599563</v>
       </c>
       <c r="C323" t="n">
-        <v>0.008761988578126404</v>
+        <v>0.008781202875920661</v>
       </c>
     </row>
     <row r="324">
@@ -4000,7 +4000,7 @@
         <v>0.8690827011251768</v>
       </c>
       <c r="C324" t="n">
-        <v>0.008012137263348229</v>
+        <v>0.008031351561142486</v>
       </c>
     </row>
     <row r="325">
@@ -4011,7 +4011,7 @@
         <v>0.869463691601516</v>
       </c>
       <c r="C325" t="n">
-        <v>0.00655938195948348</v>
+        <v>0.006578596257277736</v>
       </c>
     </row>
     <row r="326">
@@ -4022,7 +4022,7 @@
         <v>0.8713084850904105</v>
       </c>
       <c r="C326" t="n">
-        <v>0.007245309107713009</v>
+        <v>0.007264523405507265</v>
       </c>
     </row>
     <row r="327">
@@ -4033,7 +4033,7 @@
         <v>0.8705009195379317</v>
       </c>
       <c r="C327" t="n">
-        <v>0.005360834206052116</v>
+        <v>0.005380048503846372</v>
       </c>
     </row>
     <row r="328">
@@ -4044,7 +4044,7 @@
         <v>0.8711381350120226</v>
       </c>
       <c r="C328" t="n">
-        <v>0.00445061749686367</v>
+        <v>0.004469831794657927</v>
       </c>
     </row>
     <row r="329">
@@ -4055,7 +4055,7 @@
         <v>0.8723345383835086</v>
       </c>
       <c r="C329" t="n">
-        <v>0.003783270154422954</v>
+        <v>0.003802484452217211</v>
       </c>
     </row>
     <row r="330">
@@ -4066,7 +4066,7 @@
         <v>0.8729520243677651</v>
       </c>
       <c r="C330" t="n">
-        <v>0.005896768216176451</v>
+        <v>0.005915982513970707</v>
       </c>
     </row>
     <row r="331">
@@ -4077,7 +4077,7 @@
         <v>0.8733086952517402</v>
       </c>
       <c r="C331" t="n">
-        <v>0.00944801880707551</v>
+        <v>0.009467233104869766</v>
       </c>
     </row>
     <row r="332">
@@ -4088,7 +4088,7 @@
         <v>0.8738676075926077</v>
       </c>
       <c r="C332" t="n">
-        <v>0.004486777385081873</v>
+        <v>0.00450599168287613</v>
       </c>
     </row>
     <row r="333">
@@ -4099,7 +4099,7 @@
         <v>0.8736190012541581</v>
       </c>
       <c r="C333" t="n">
-        <v>0.005775771408408344</v>
+        <v>0.005794985706202601</v>
       </c>
     </row>
     <row r="334">
@@ -4110,7 +4110,7 @@
         <v>0.8745770935225532</v>
       </c>
       <c r="C334" t="n">
-        <v>0.008008620424024634</v>
+        <v>0.00802783472181889</v>
       </c>
     </row>
     <row r="335">
@@ -4121,7 +4121,7 @@
         <v>0.8750819050962283</v>
       </c>
       <c r="C335" t="n">
-        <v>0.006282630978070951</v>
+        <v>0.006301845275865207</v>
       </c>
     </row>
     <row r="336">
@@ -4132,7 +4132,7 @@
         <v>0.8746263794515856</v>
       </c>
       <c r="C336" t="n">
-        <v>0.004190786907628341</v>
+        <v>0.004210001205422597</v>
       </c>
     </row>
     <row r="337">
@@ -4143,7 +4143,7 @@
         <v>0.8753298513558865</v>
       </c>
       <c r="C337" t="n">
-        <v>0.008509732393447435</v>
+        <v>0.008528946691241691</v>
       </c>
     </row>
     <row r="338">
@@ -4154,7 +4154,7 @@
         <v>0.8752722273785382</v>
       </c>
       <c r="C338" t="n">
-        <v>0.004348353195543666</v>
+        <v>0.004367567493337922</v>
       </c>
     </row>
     <row r="339">
@@ -4165,7 +4165,7 @@
         <v>0.875827095801509</v>
       </c>
       <c r="C339" t="n">
-        <v>0.004628337655583152</v>
+        <v>0.004647551953377408</v>
       </c>
     </row>
     <row r="340">
@@ -4176,7 +4176,7 @@
         <v>0.8756080394657491</v>
       </c>
       <c r="C340" t="n">
-        <v>0.00405712586416236</v>
+        <v>0.004076340161956616</v>
       </c>
     </row>
     <row r="341">
@@ -4187,7 +4187,7 @@
         <v>0.8763685093350385</v>
       </c>
       <c r="C341" t="n">
-        <v>0.004897461408158839</v>
+        <v>0.004916675705953095</v>
       </c>
     </row>
     <row r="342">
@@ -4198,7 +4198,7 @@
         <v>0.8770284864078091</v>
       </c>
       <c r="C342" t="n">
-        <v>0.002340226435056136</v>
+        <v>0.002359440732850393</v>
       </c>
     </row>
     <row r="343">
@@ -4209,7 +4209,7 @@
         <v>0.8769492009008517</v>
       </c>
       <c r="C343" t="n">
-        <v>0.002564535273241479</v>
+        <v>0.002583749571035735</v>
       </c>
     </row>
     <row r="344">
@@ -4220,7 +4220,7 @@
         <v>0.8771599323994044</v>
       </c>
       <c r="C344" t="n">
-        <v>0.003292689281826097</v>
+        <v>0.003311903579620354</v>
       </c>
     </row>
     <row r="345">
@@ -4231,7 +4231,7 @@
         <v>0.8781838715476735</v>
       </c>
       <c r="C345" t="n">
-        <v>0.004672780154515731</v>
+        <v>0.004691994452309988</v>
       </c>
     </row>
     <row r="346">
@@ -4242,7 +4242,7 @@
         <v>0.8786010317601484</v>
       </c>
       <c r="C346" t="n">
-        <v>0.001950860081059429</v>
+        <v>0.001970074378853686</v>
       </c>
     </row>
     <row r="347">
@@ -4253,7 +4253,7 @@
         <v>0.8789975690639044</v>
       </c>
       <c r="C347" t="n">
-        <v>0.003340954792138146</v>
+        <v>0.003360169089932403</v>
       </c>
     </row>
     <row r="348">
@@ -4264,7 +4264,7 @@
         <v>0.8800163626354295</v>
       </c>
       <c r="C348" t="n">
-        <v>0.003452115401509244</v>
+        <v>0.003471329699303501</v>
       </c>
     </row>
     <row r="349">
@@ -4275,7 +4275,7 @@
         <v>0.8791189060190079</v>
       </c>
       <c r="C349" t="n">
-        <v>0.0006519395769690886</v>
+        <v>0.0006711538747633454</v>
       </c>
     </row>
     <row r="350">
@@ -4286,7 +4286,7 @@
         <v>0.8791585968673654</v>
       </c>
       <c r="C350" t="n">
-        <v>0.002694645701229881</v>
+        <v>0.002713859999024138</v>
       </c>
     </row>
     <row r="351">
@@ -4297,7 +4297,7 @@
         <v>0.8796123218361117</v>
       </c>
       <c r="C351" t="n">
-        <v>0.001846127815237639</v>
+        <v>0.001865342113031896</v>
       </c>
     </row>
     <row r="352">
@@ -4308,7 +4308,7 @@
         <v>0.8806078260587321</v>
       </c>
       <c r="C352" t="n">
-        <v>0.002439104061387849</v>
+        <v>0.002458318359182106</v>
       </c>
     </row>
     <row r="353">
@@ -4319,7 +4319,7 @@
         <v>0.8813732350427175</v>
       </c>
       <c r="C353" t="n">
-        <v>0.003363478263711467</v>
+        <v>0.003382692561505724</v>
       </c>
     </row>
     <row r="354">
@@ -4330,7 +4330,7 @@
         <v>0.8827606571745515</v>
       </c>
       <c r="C354" t="n">
-        <v>0.002307745373294746</v>
+        <v>0.002326959671089002</v>
       </c>
     </row>
     <row r="355">
@@ -4341,7 +4341,7 @@
         <v>0.8836893042534143</v>
       </c>
       <c r="C355" t="n">
-        <v>0.002204084487302794</v>
+        <v>0.002223298785097051</v>
       </c>
     </row>
     <row r="356">
@@ -4352,7 +4352,7 @@
         <v>0.884152058087427</v>
       </c>
       <c r="C356" t="n">
-        <v>0.002404734607238571</v>
+        <v>0.002423948905032827</v>
       </c>
     </row>
     <row r="357">
@@ -4363,7 +4363,7 @@
         <v>0.885402925246812</v>
       </c>
       <c r="C357" t="n">
-        <v>0.002297789295897862</v>
+        <v>0.002317003593692118</v>
       </c>
     </row>
     <row r="358">
@@ -4374,7 +4374,7 @@
         <v>0.8868951398471582</v>
       </c>
       <c r="C358" t="n">
-        <v>0.002558175631324806</v>
+        <v>0.002577389929119063</v>
       </c>
     </row>
     <row r="359">
@@ -4385,7 +4385,7 @@
         <v>0.8881173287653884</v>
       </c>
       <c r="C359" t="n">
-        <v>0.0009921992051786194</v>
+        <v>0.001011413502972876</v>
       </c>
     </row>
     <row r="360">
@@ -4396,7 +4396,7 @@
         <v>0.8892911665280064</v>
       </c>
       <c r="C360" t="n">
-        <v>0.003057210782611785</v>
+        <v>0.003076425080406041</v>
       </c>
     </row>
     <row r="361">
@@ -4407,7 +4407,7 @@
         <v>0.8910665306964746</v>
       </c>
       <c r="C361" t="n">
-        <v>0.001688817708996436</v>
+        <v>0.001708032006790692</v>
       </c>
     </row>
     <row r="362">
@@ -4418,7 +4418,7 @@
         <v>0.8931305408170286</v>
       </c>
       <c r="C362" t="n">
-        <v>0.001746951388615728</v>
+        <v>0.001766165686409985</v>
       </c>
     </row>
     <row r="363">
@@ -4429,7 +4429,7 @@
         <v>0.8949829144496204</v>
       </c>
       <c r="C363" t="n">
-        <v>0.001832937000326521</v>
+        <v>0.001852151298120777</v>
       </c>
     </row>
     <row r="364">
@@ -4440,7 +4440,7 @@
         <v>0.8956548499437216</v>
       </c>
       <c r="C364" t="n">
-        <v>0.001322411507538771</v>
+        <v>0.001341625805333028</v>
       </c>
     </row>
     <row r="365">
@@ -4451,7 +4451,7 @@
         <v>0.896149955644293</v>
       </c>
       <c r="C365" t="n">
-        <v>0.001100726580193653</v>
+        <v>0.00111994087798791</v>
       </c>
     </row>
     <row r="366">
@@ -4462,7 +4462,7 @@
         <v>0.8976033385919656</v>
       </c>
       <c r="C366" t="n">
-        <v>0.001886738504952877</v>
+        <v>0.001905952802747134</v>
       </c>
     </row>
     <row r="367">
@@ -4473,7 +4473,7 @@
         <v>0.8978729813585564</v>
       </c>
       <c r="C367" t="n">
-        <v>0.001376404543264402</v>
+        <v>0.001395618841058658</v>
       </c>
     </row>
     <row r="368">
@@ -4484,7 +4484,7 @@
         <v>0.8974289940363569</v>
       </c>
       <c r="C368" t="n">
-        <v>0.0004441718559111889</v>
+        <v>0.0004633861537054456</v>
       </c>
     </row>
     <row r="369">
@@ -4495,7 +4495,7 @@
         <v>0.8975581055454522</v>
       </c>
       <c r="C369" t="n">
-        <v>0.001111174457518586</v>
+        <v>0.001130388755312842</v>
       </c>
     </row>
     <row r="370">
@@ -4506,7 +4506,7 @@
         <v>0.8985310320566695</v>
       </c>
       <c r="C370" t="n">
-        <v>0.001434142871347397</v>
+        <v>0.001453357169141654</v>
       </c>
     </row>
     <row r="371">
@@ -4517,7 +4517,7 @@
         <v>0.8988796149138902</v>
       </c>
       <c r="C371" t="n">
-        <v>0.001063962594230138</v>
+        <v>0.001083176892024394</v>
       </c>
     </row>
     <row r="372">
@@ -4528,7 +4528,7 @@
         <v>0.8990133461103903</v>
       </c>
       <c r="C372" t="n">
-        <v>0.0008311938728122203</v>
+        <v>0.0008504081706064771</v>
       </c>
     </row>
     <row r="373">
@@ -4539,7 +4539,7 @@
         <v>0.8997469250359842</v>
       </c>
       <c r="C373" t="n">
-        <v>0.001119135534139259</v>
+        <v>0.001138349831933516</v>
       </c>
     </row>
     <row r="374">
@@ -4550,7 +4550,7 @@
         <v>0.9005221264472894</v>
       </c>
       <c r="C374" t="n">
-        <v>0.001311145439515884</v>
+        <v>0.001330359737310141</v>
       </c>
     </row>
     <row r="375">
@@ -4561,7 +4561,7 @@
         <v>0.9011210948640298</v>
       </c>
       <c r="C375" t="n">
-        <v>0.001022028703947825</v>
+        <v>0.001041243001742081</v>
       </c>
     </row>
     <row r="376">
@@ -4572,7 +4572,7 @@
         <v>0.901572566589222</v>
       </c>
       <c r="C376" t="n">
-        <v>0.001247337309307891</v>
+        <v>0.001266551607102148</v>
       </c>
     </row>
     <row r="377">
@@ -4583,7 +4583,7 @@
         <v>0.9022611253153066</v>
       </c>
       <c r="C377" t="n">
-        <v>0.001181033429037978</v>
+        <v>0.001200247726832235</v>
       </c>
     </row>
     <row r="378">
@@ -4594,7 +4594,7 @@
         <v>0.9031501187711762</v>
       </c>
       <c r="C378" t="n">
-        <v>0.001436937488806794</v>
+        <v>0.001456151786601051</v>
       </c>
     </row>
     <row r="379">
@@ -4605,7 +4605,7 @@
         <v>0.9036792985374994</v>
       </c>
       <c r="C379" t="n">
-        <v>0.001209030517825434</v>
+        <v>0.001228244815619691</v>
       </c>
     </row>
     <row r="380">
@@ -4616,7 +4616,7 @@
         <v>0.9038015018957249</v>
       </c>
       <c r="C380" t="n">
-        <v>0.001244745624422156</v>
+        <v>0.001263959922216412</v>
       </c>
     </row>
     <row r="381">
@@ -4627,7 +4627,7 @@
         <v>0.903832058794795</v>
       </c>
       <c r="C381" t="n">
-        <v>0.001093312945694559</v>
+        <v>0.001112527243488815</v>
       </c>
     </row>
     <row r="382">
@@ -4638,7 +4638,7 @@
         <v>0.9039662651681499</v>
       </c>
       <c r="C382" t="n">
-        <v>0.001224373023976657</v>
+        <v>0.001243587321770914</v>
       </c>
     </row>
     <row r="383">
@@ -4649,7 +4649,7 @@
         <v>0.9038278097686789</v>
       </c>
       <c r="C383" t="n">
-        <v>0.001017728370083797</v>
+        <v>0.001036942667878053</v>
       </c>
     </row>
     <row r="384">
@@ -4660,7 +4660,7 @@
         <v>0.903770672178287</v>
       </c>
       <c r="C384" t="n">
-        <v>0.001012806318342321</v>
+        <v>0.001032020616136578</v>
       </c>
     </row>
     <row r="385">
@@ -4671,7 +4671,7 @@
         <v>0.9044032595752861</v>
       </c>
       <c r="C385" t="n">
-        <v>0.001646235817185789</v>
+        <v>0.001665450114980045</v>
       </c>
     </row>
     <row r="386">
@@ -4682,7 +4682,7 @@
         <v>0.9045859506532108</v>
       </c>
       <c r="C386" t="n">
-        <v>0.001268999188872287</v>
+        <v>0.001288213486666543</v>
       </c>
     </row>
     <row r="387">
@@ -4693,7 +4693,7 @@
         <v>0.9053885914729116</v>
       </c>
       <c r="C387" t="n">
-        <v>0.001883576598643444</v>
+        <v>0.0019027908964377</v>
       </c>
     </row>
     <row r="388">
@@ -4704,7 +4704,7 @@
         <v>0.9052478788419348</v>
       </c>
       <c r="C388" t="n">
-        <v>0.001018628989646952</v>
+        <v>0.001037843287441209</v>
       </c>
     </row>
     <row r="389">
@@ -4715,7 +4715,7 @@
         <v>0.9055185607976973</v>
       </c>
       <c r="C389" t="n">
-        <v>0.001242440023706687</v>
+        <v>0.001261654321500944</v>
       </c>
     </row>
     <row r="390">
@@ -4726,7 +4726,7 @@
         <v>0.9053168147648895</v>
       </c>
       <c r="C390" t="n">
-        <v>0.001212332513769641</v>
+        <v>0.001231546811563897</v>
       </c>
     </row>
     <row r="391">
@@ -4737,7 +4737,7 @@
         <v>0.9063580412498049</v>
       </c>
       <c r="C391" t="n">
-        <v>0.001612813966406411</v>
+        <v>0.001632028264200668</v>
       </c>
     </row>
     <row r="392">
@@ -4748,7 +4748,7 @@
         <v>0.9067940513882321</v>
       </c>
       <c r="C392" t="n">
-        <v>0.001463980636453549</v>
+        <v>0.001483194934247806</v>
       </c>
     </row>
     <row r="393">
@@ -4759,7 +4759,7 @@
         <v>0.9078655605020409</v>
       </c>
       <c r="C393" t="n">
-        <v>0.001779178852863306</v>
+        <v>0.001798393150657563</v>
       </c>
     </row>
     <row r="394">
@@ -4770,7 +4770,7 @@
         <v>0.9083178836306623</v>
       </c>
       <c r="C394" t="n">
-        <v>0.001547012217127492</v>
+        <v>0.001566226514921748</v>
       </c>
     </row>
     <row r="395">
@@ -4781,7 +4781,7 @@
         <v>0.9084240580316467</v>
       </c>
       <c r="C395" t="n">
-        <v>0.001397643394366103</v>
+        <v>0.00141685769216036</v>
       </c>
     </row>
     <row r="396">
@@ -4792,7 +4792,7 @@
         <v>0.908493362193755</v>
       </c>
       <c r="C396" t="n">
-        <v>0.001235040867065031</v>
+        <v>0.001254255164859287</v>
       </c>
     </row>
     <row r="397">
@@ -4803,7 +4803,7 @@
         <v>0.9088377205188033</v>
       </c>
       <c r="C397" t="n">
-        <v>0.001574427879779173</v>
+        <v>0.00159364217757343</v>
       </c>
     </row>
     <row r="398">
@@ -4814,7 +4814,7 @@
         <v>0.9085115776682113</v>
       </c>
       <c r="C398" t="n">
-        <v>0.001037596150018066</v>
+        <v>0.001056810447812323</v>
       </c>
     </row>
     <row r="399">
@@ -4825,7 +4825,7 @@
         <v>0.9079343363840807</v>
       </c>
       <c r="C399" t="n">
-        <v>0.001669688348243068</v>
+        <v>0.001688902646037324</v>
       </c>
     </row>
   </sheetData>
